--- a/IPL/Mumbai Indians/Hrithik Shokeen.xlsx
+++ b/IPL/Mumbai Indians/Hrithik Shokeen.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,28 +445,31 @@
         <v>Hrithik Shokeen</v>
       </c>
       <c r="C2" t="str">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D2" t="str">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="str">
         <v>0</v>
       </c>
       <c r="G2" t="str">
-        <v>100.00</v>
+        <v>166.66</v>
       </c>
       <c r="H2" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="I2" t="str">
-        <v>DY Patil</v>
+        <v>Bengaluru</v>
       </c>
       <c r="J2" t="str">
-        <v>April 21 2022</v>
+        <v>April 02 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,10 +480,10 @@
         <v>Hrithik Shokeen</v>
       </c>
       <c r="C3" t="str">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D3" t="str">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E3" t="str">
         <v>3</v>
@@ -489,24 +492,59 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>100.00</v>
+        <v>138.46</v>
       </c>
       <c r="H3" t="str">
         <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J3" t="str">
-        <v>April 21 2022</v>
+        <v>April 08 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Kings won by 3 wickets (with 0 balls remaining)</v>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Hrithik Shokeen</v>
+      </c>
+      <c r="C4" t="str">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Lucknow Super Giants</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="J4" t="str">
+        <v>May 24 2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K4"/>
   </ignoredErrors>
 </worksheet>
 </file>